--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_123_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_123_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.6065685016309184, 3.3176848180506537]</t>
+          <t>[2.6057347188925757, 3.3185186007889964]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.005884611322218625, 0.36374195552651933]</t>
+          <t>[-0.005732331694725534, 0.36358967589902624]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.05742613380323647</v>
+        <v>0.0572289265376773</v>
       </c>
       <c r="V2" t="n">
-        <v>0.05742613380323647</v>
+        <v>0.0572289265376773</v>
       </c>
       <c r="W2" t="n">
         <v>18.81225225225255</v>
